--- a/matching 3D project.xlsx
+++ b/matching 3D project.xlsx
@@ -440,236 +440,236 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>12.9722</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>12.264</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>13.9161</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>7.11572</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>16.2511</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>12.4213</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>34.3404</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>9.34376</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>18.1318</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>18.0318</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>3.83244</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>-10.8537</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>9.22307</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>10.9678</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>8.09422</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>3.17535</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>-9.99424</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>8.30978</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>7.08189</v>
+        <v>12.7</v>
       </c>
       <c r="C3" s="2">
-        <v>-8.23368</v>
+        <v>12.4</v>
       </c>
       <c r="D3" s="2">
-        <v>19.2394</v>
+        <v>16.6</v>
       </c>
       <c r="E3" s="2">
-        <v>2.11796</v>
+        <v>12.4</v>
       </c>
       <c r="F3" s="2">
-        <v>12.0538</v>
+        <v>12.1</v>
       </c>
       <c r="G3" s="2">
-        <v>-2.5873</v>
+        <v>7.7</v>
       </c>
       <c r="H3" s="2">
-        <v>3.44349</v>
+        <v>34.345</v>
       </c>
       <c r="I3" s="2">
-        <v>6.13623</v>
+        <v>17.4</v>
       </c>
       <c r="J3" s="2">
-        <v>-11.3942</v>
+        <v>15.88</v>
       </c>
       <c r="K3" s="2">
-        <v>2.46091</v>
+        <v>13.7</v>
       </c>
       <c r="L3" s="2">
-        <v>-2.81762</v>
+        <v>10.4</v>
       </c>
       <c r="M3" s="2">
-        <v>3.0332</v>
+        <v>10.2</v>
       </c>
       <c r="N3" s="2">
-        <v>-12.5312</v>
+        <v>9.2</v>
       </c>
       <c r="O3" s="2">
-        <v>1.61007</v>
-      </c>
-      <c r="P3" s="2">
-        <v>-32.8139</v>
+        <v>11.4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>8.0</v>
       </c>
       <c r="Q3" s="2">
-        <v>42.3654</v>
+        <v>8.7</v>
       </c>
       <c r="R3" s="2">
-        <v>15.9044</v>
+        <v>10.4</v>
       </c>
       <c r="S3" s="2">
-        <v>2.65269</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>13.1921</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>12.0773</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>16.0861</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>10.624</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>13.1687</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>8.32939</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>35.5694</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>14.2971</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>16.4879</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>14.6738</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>7.44223</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>18.8922</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>9.16562</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>11.3661</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>7.98187</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>6.13363</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>20.1364</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>8.41452</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>10.8349</v>
+        <v>13.4</v>
       </c>
       <c r="C5" s="2">
-        <v>33.545</v>
+        <v>11.89</v>
       </c>
       <c r="D5" s="2">
-        <v>17.5067</v>
+        <v>17.2</v>
       </c>
       <c r="E5" s="2">
-        <v>8.70194</v>
+        <v>12.6</v>
       </c>
       <c r="F5" s="2">
-        <v>6.90828</v>
+        <v>12.5</v>
       </c>
       <c r="G5" s="2">
-        <v>-257.452</v>
+        <v>7.39</v>
       </c>
       <c r="H5" s="2">
-        <v>10.4434</v>
+        <v>38.2</v>
       </c>
       <c r="I5" s="2">
-        <v>-306.083</v>
+        <v>18.11</v>
       </c>
       <c r="J5" s="2">
-        <v>8.95591</v>
+        <v>15.09</v>
       </c>
       <c r="K5" s="2">
-        <v>6.36816</v>
+        <v>14.06</v>
       </c>
       <c r="L5" s="2">
-        <v>-40.9261</v>
+        <v>10.64</v>
       </c>
       <c r="M5" s="2">
-        <v>6.2431</v>
+        <v>9.8</v>
       </c>
       <c r="N5" s="2">
-        <v>16.7029</v>
+        <v>9.1</v>
       </c>
       <c r="O5" s="2">
-        <v>5.45703</v>
+        <v>11.5</v>
       </c>
       <c r="P5" s="2">
-        <v>8.07778</v>
+        <v>7.9</v>
       </c>
       <c r="Q5" s="2">
-        <v>11.0626</v>
+        <v>8.8</v>
       </c>
       <c r="R5" s="2">
-        <v>11.0948</v>
+        <v>9.9</v>
       </c>
       <c r="S5" s="2">
-        <v>5.45848</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +699,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>12.3202</v>
       </c>
       <c r="C8" s="1">
@@ -758,10 +758,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>12.5723</v>
       </c>
       <c r="C9" s="1">
@@ -817,10 +817,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>12.5723</v>
       </c>
       <c r="C10" s="1">
@@ -876,10 +876,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>12.4142</v>
       </c>
       <c r="C11" s="1">
@@ -935,10 +935,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>12.4142</v>
       </c>
       <c r="C12" s="1">
@@ -994,10 +994,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12.4362</v>
       </c>
       <c r="C14" s="1">
@@ -1053,10 +1053,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>11.5362</v>
       </c>
       <c r="C15" s="1">
@@ -1112,10 +1112,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>11.1785</v>
       </c>
       <c r="C16" s="1">
@@ -1171,10 +1171,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>12.2156</v>
       </c>
       <c r="C17" s="1">
@@ -1230,10 +1230,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>12.0859</v>
       </c>
       <c r="C18" s="1">
@@ -1289,10 +1289,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>13.1695</v>
       </c>
       <c r="C20" s="1">
@@ -1348,10 +1348,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>12.994</v>
       </c>
       <c r="C21" s="1">
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>14.7956</v>
       </c>
       <c r="C22" s="1">
@@ -1466,10 +1466,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>12.3401</v>
       </c>
       <c r="C23" s="1">
@@ -1525,10 +1525,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>13.1808</v>
       </c>
       <c r="C24" s="1">
@@ -1584,10 +1584,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>16.6423</v>
       </c>
       <c r="C26" s="1">
@@ -1643,10 +1643,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>23.9769</v>
       </c>
       <c r="C27" s="1">
@@ -1702,10 +1702,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>103.201</v>
       </c>
       <c r="C28" s="1">
@@ -1761,10 +1761,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>12.2074</v>
       </c>
       <c r="C29" s="1">
@@ -1820,10 +1820,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>13.3163</v>
       </c>
       <c r="C30" s="1">
@@ -1879,10 +1879,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>11.8806</v>
       </c>
       <c r="C32" s="1">
@@ -1938,10 +1938,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>13.2324</v>
       </c>
       <c r="C33" s="1">
@@ -1997,10 +1997,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>12.3568</v>
       </c>
       <c r="C34" s="1">
@@ -2056,10 +2056,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>12.0991</v>
       </c>
       <c r="C35" s="1">
@@ -2115,10 +2115,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>12.3241</v>
       </c>
       <c r="C36" s="1">
@@ -2174,10 +2174,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>12.3752</v>
       </c>
       <c r="C37" s="1">
@@ -2233,10 +2233,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>11.5918</v>
       </c>
       <c r="C39" s="1">
@@ -2292,10 +2292,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>12.0988</v>
       </c>
       <c r="C40" s="1">
@@ -2351,10 +2351,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>11.2996</v>
       </c>
       <c r="C41" s="1">
@@ -2410,10 +2410,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>11.6247</v>
       </c>
       <c r="C42" s="1">
